--- a/Uren Grenspoal.xlsx
+++ b/Uren Grenspoal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephan\Desktop\Projects\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github projecten\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stephan" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Datum</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Totaal</t>
+  </si>
+  <si>
+    <t>Powerpoint LED-wall</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -92,6 +95,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,15 +661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -682,12 +688,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1">
+        <v>42267</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>0</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
